--- a/hardware/BOM.xlsx
+++ b/hardware/BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fb704d003e5b38c/UnB/TCC/tcc/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{E9D512E0-9597-414F-AA58-F6426F166CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F637030F-EA50-5641-BBFE-79F2B6C06561}"/>
+  <xr:revisionPtr revIDLastSave="551" documentId="8_{E9D512E0-9597-414F-AA58-F6426F166CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37D60786-A4A9-854C-B003-B19D5A3100FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32540" windowHeight="19340" xr2:uid="{8685D79E-647C-A244-97A1-C100C1219A28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{8685D79E-647C-A244-97A1-C100C1219A28}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$2:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$2:$F$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
   <si>
     <t>Footprint</t>
   </si>
@@ -153,9 +153,6 @@
     <t>2200uF/50V</t>
   </si>
   <si>
-    <t>C14</t>
-  </si>
-  <si>
     <t>C16, C17</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>LED4, LED5</t>
   </si>
   <si>
-    <t>LED6, LED7, LED8, LED9</t>
-  </si>
-  <si>
     <t>BJT</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
     <t>Zener Diode</t>
   </si>
   <si>
-    <t>1N4728</t>
-  </si>
-  <si>
     <t>ZD1, ZD2</t>
   </si>
   <si>
@@ -421,6 +412,75 @@
   </si>
   <si>
     <t>LED10</t>
+  </si>
+  <si>
+    <t>Heat Sink</t>
+  </si>
+  <si>
+    <t>34,5X12,5X20mm</t>
+  </si>
+  <si>
+    <t>DN322</t>
+  </si>
+  <si>
+    <t>Q3, Q4</t>
+  </si>
+  <si>
+    <t>Plug VDC P4</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>33KΩ</t>
+  </si>
+  <si>
+    <t>PTH-5W</t>
+  </si>
+  <si>
+    <t>R35, R36, R37, R38</t>
+  </si>
+  <si>
+    <t>1N4728 (3.3V)</t>
+  </si>
+  <si>
+    <t>1N4752 (33V)</t>
+  </si>
+  <si>
+    <t>ZD3</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>R39, R40</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>IRF840</t>
+  </si>
+  <si>
+    <t>Q5, Q6</t>
+  </si>
+  <si>
+    <t>C14, C23</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>1.8KΩ</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>LED6, LED7, LED8, LED9, LED11</t>
   </si>
 </sst>
 </file>
@@ -479,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -502,76 +562,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,25 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,29 +588,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -671,81 +630,18 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -764,7 +660,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -790,6 +686,128 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -811,6 +829,22 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -818,16 +852,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -844,8 +868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{06F222E8-3FD9-2E49-9249-BC9D7EDCC762}" name="BOM" displayName="BOM" ref="A2:G51" totalsRowShown="0" headerRowDxfId="1" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A2:G51" xr:uid="{06F222E8-3FD9-2E49-9249-BC9D7EDCC762}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{06F222E8-3FD9-2E49-9249-BC9D7EDCC762}" name="BOM" displayName="BOM" ref="A2:G59" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A2:G59" xr:uid="{06F222E8-3FD9-2E49-9249-BC9D7EDCC762}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FA3C9FF1-F243-7D49-B317-06515767960F}" name="Number" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{43FB7427-41E9-9B42-9E66-9B5E714025D4}" name="Component" dataDxfId="6"/>
@@ -853,7 +877,7 @@
     <tableColumn id="4" xr3:uid="{58F6F7D0-5E20-3E45-A66F-10F4D68B6838}" name="Footprint" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{E542C4A1-D46B-724F-AA99-024CE24957A3}" name="Qnt" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{09A465CB-00A8-504D-947F-39F3EC3F85DB}" name="Designator" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{DC8F1EB9-C094-7145-85E0-B520522BAFBD}" name="Remark" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{DC8F1EB9-C094-7145-85E0-B520522BAFBD}" name="Remark" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1156,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F6BEAB-C2F5-4C4D-B647-30FA8B17585C}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,36 +1199,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1212,7 +1236,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1232,71 +1256,71 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1304,91 +1328,91 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1396,89 +1420,89 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>76</v>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>28</v>
@@ -1488,181 +1512,181 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>91</v>
+      <c r="F18" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>95</v>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>97</v>
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>28</v>
@@ -1672,91 +1696,91 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="F25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="11">
-        <v>4</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1764,91 +1788,91 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>101</v>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>103</v>
+      <c r="F27" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="11">
-        <v>4</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1856,473 +1880,657 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>32</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>28</v>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="11">
-        <v>2</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="11">
-        <v>3</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>28</v>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="11">
-        <v>2</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>28</v>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="11">
-        <v>4</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>33</v>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="11">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>40</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>33</v>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="11">
-        <v>7812</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>33</v>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="11">
-        <v>7912</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>28</v>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>33</v>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>28</v>
+      <c r="B47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>28</v>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>121</v>
+      <c r="B49" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7812</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E50" s="3">
         <v>1</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>123</v>
+      <c r="F50" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="3">
+        <v>7912</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
-        <v>1</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>28</v>
+      <c r="C58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
